--- a/tables/wiki_full.xlsx
+++ b/tables/wiki_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,85 +441,125 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>explanation rate</t>
+          <t>necessary explanation rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sparsity</t>
+          <t>sufficient explanation rate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>sparsity_necessary</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sparsity_sufficient</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>avg_oracle_calls</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>avg_oracle_calls_cf</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>initialisation (s)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oracle calls (s)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>explanation (s)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>sparsity_values</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>sparsity_list</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>explanation_rate_list</t>
+          <t>sparsity_values_fid_plus</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>sparsity_list_fid_plus</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>sparsity_values_fid_min</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sparsity_list_fid_min</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>AUFC_plus</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AUFC_min</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>necessary_rate_list</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>sufficient_rate_list</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fidelity_minus</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>fidelity_plus</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>fidelity_minus</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>sparsity_all</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>characterization_score</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Explainer</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>meta</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>correct</t>
         </is>
@@ -531,636 +571,906 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.14</v>
+        <v>0.045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.173020804605626</v>
+        <v>0.895</v>
       </c>
       <c r="E2" t="n">
-        <v>284.52</v>
+        <v>0.7555555555555556</v>
       </c>
       <c r="F2" t="n">
-        <v>183.2857142857143</v>
+        <v>0.3280567086013582</v>
       </c>
       <c r="G2" t="n">
-        <v>140.15186537443</v>
+        <v>13112.615</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004101982625</v>
+        <v>12273.77777777778</v>
       </c>
       <c r="I2" t="n">
-        <v>139.65483981021</v>
+        <v>88.539939870335</v>
       </c>
       <c r="J2" t="n">
-        <v>0.49702556422</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[0.8571428571428571, 0.03125, 0.109375, 0.24324324324324326, 0.015625, 0.09375, 0.0625, 0.015625, 0.8, 0.015625, 0.015625, 0.015625, 0.125, 0.0625, 0.42857142857142855, 0.1875, 0.015625, 0.015625, 0.03125, 0.015625, 0.0625, 0.5, 0.046875, 0.046875, 0.09375, 0.046875, 0.875, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.09375, 0.109375, 0.125, 0.1875, 0.24324324324324326, 0.42857142857142855, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
-        </is>
+        <v>0.060199167095</v>
+      </c>
+      <c r="K2" t="n">
+        <v>75.79306809793499</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.686672605305</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.0, 0.045, 0.055, 0.07, 0.085, 0.095, 0.1, 0.105, 0.11, 0.115, 0.12, 0.125, 0.13, 0.135, 0.14, 0.14]</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.07014718712186413</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+          <t>[0.36666666666666664, 0.3, 0.9333333333333333, 0.9, 0.9, 1.0, 0.9, 0.7, 0.8]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0.29999, 0.3, 0.36666666666666664, 0.7, 0.8, 0.9, 0.9333333333333333, 1.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0.8666666666666667, 0.1, 0.03333333333333333, 0.06666666666666667, 0.058823529411764705, 0.3333333333333333, 0.06666666666666667, 0.06666666666666667, 0.8333333333333334, 0.06666666666666667, 0.13333333333333333, 0.06666666666666667, 0.06666666666666667, 0.047619047619047616, 0.06666666666666667, 0.1, 0.36666666666666664, 0.9333333333333333, 0.3, 0.06666666666666667, 0.03333333333333333, 0.3076923076923077, 0.5666666666666667, 0.06666666666666667, 0.3, 0.06666666666666667, 0.23333333333333334, 0.7777777777777778, 0.06666666666666667, 0.8, 0.9333333333333333, 0.4666666666666667, 0.05555555555555555, 0.1, 0.9333333333333333, 0.06666666666666667, 0.7037037037037037, 0.9, 0.18181818181818182, 0.5, 0.06666666666666667, 0.6666666666666666, 0.03333333333333333, 0.06666666666666667, 0.06666666666666667, 0.06666666666666667, 0.13333333333333333, 0.4666666666666667, 0.23333333333333334, 0.6333333333333333, 0.23333333333333334, 0.2, 0.26666666666666666, 0.6, 0.8333333333333334, 0.2, 0.06666666666666667, 0.5666666666666667, 0.25, 0.9333333333333333, 0.13333333333333333, 0.06666666666666667, 0.6666666666666666, 0.8333333333333334, 0.6, 0.8666666666666667, 0.6333333333333333, 0.16666666666666666, 0.13333333333333333, 0.06666666666666667, 0.9, 0.06666666666666667, 0.6666666666666666, 0.3333333333333333, 0.06666666666666667, 0.4, 0.8666666666666667, 0.7, 0.1, 0.9666666666666667, 0.16666666666666666, 0.06666666666666667, 0.7, 0.06666666666666667, 0.06666666666666667, 0.16666666666666666, 0.9, 0.058823529411764705, 0.7666666666666667, 0.03333333333333333, 0.5, 1.0, 0.03333333333333333, 0.6333333333333333, 0.06666666666666667, 0.23333333333333334, 0.06666666666666667, 0.9333333333333333, 0.8, 0.06666666666666667, 0.16666666666666666, 0.16666666666666666, 0.1, 0.03333333333333333, 0.9333333333333333, 0.23333333333333334, 0.3333333333333333, 0.03333333333333333, 0.9, 0.03333333333333333, 0.06666666666666667, 0.06666666666666667, 0.03333333333333333, 0.8666666666666667, 0.16666666666666666, 0.06666666666666667, 0.06666666666666667, 0.03333333333333333, 0.16666666666666666, 0.06666666666666667, 0.03333333333333333, 0.16666666666666666, 0.03333333333333333, 0.8666666666666667, 0.9, 0.13333333333333333, 0.5333333333333333, 0.43333333333333335, 0.4666666666666667, 0.4, 0.5666666666666667, 0.9, 0.06666666666666667, 0.06666666666666667, 0.1, 0.7, 0.13333333333333333, 0.4666666666666667, 0.9333333333333333, 0.8, 0.06666666666666667, 0.13333333333333333, 0.13333333333333333, 0.06666666666666667, 0.7666666666666667, 0.06666666666666667, 0.13333333333333333, 0.3181818181818182, 0.2, 0.9, 0.13333333333333333, 0.06666666666666667, 0.06666666666666667, 0.13333333333333333, 0.14285714285714285, 0.13333333333333333, 0.2, 0.06666666666666667, 0.06666666666666667, 0.06666666666666667, 0.9333333333333333, 0.36666666666666664, 0.2, 0.6333333333333333, 0.06666666666666667, 0.06666666666666667, 0.5, 0.03333333333333333, 0.05263157894736842, 0.03333333333333333, 0.23333333333333334, 0.8, 0.16666666666666666, 0.6666666666666666, 0.1, 0.6666666666666666, 0.06666666666666667, 0.06666666666666667, 0.13333333333333333]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.03332333333333333, 0.03333333333333333, 0.047619047619047616, 0.05263157894736842, 0.05555555555555555, 0.058823529411764705, 0.06666666666666667, 0.1, 0.13333333333333333, 0.14285714285714285, 0.16666666666666666, 0.18181818181818182, 0.2, 0.23333333333333334, 0.25, 0.26666666666666666, 0.3, 0.3076923076923077, 0.3181818181818182, 0.3333333333333333, 0.36666666666666664, 0.4, 0.43333333333333335, 0.4666666666666667, 0.5, 0.5333333333333333, 0.5666666666666667, 0.6, 0.6333333333333333, 0.6666666666666666, 0.7, 0.7037037037037037, 0.7666666666666667, 0.7777777777777778, 0.8, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9333333333333333, 0.9666666666666667, 1.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.013250025</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6109212923187751</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.005, 0.01, 0.015, 0.02, 0.035, 0.04, 0.045, 0.045]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.07, 0.075, 0.08, 0.085, 0.095, 0.325, 0.36, 0.425, 0.43, 0.475, 0.48, 0.505, 0.535, 0.54, 0.545, 0.555, 0.56, 0.565, 0.58, 0.59, 0.6, 0.605, 0.625, 0.64, 0.645, 0.66, 0.67, 0.69, 0.715, 0.73, 0.735, 0.745, 0.75, 0.77, 0.785, 0.81, 0.845, 0.885, 0.89, 0.895, 0.895]</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.3266107541982155</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.08569148936170214</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>TGNNExplainer</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S2" t="b">
+      <c r="AA2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1685468146718146</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>284.85</v>
+        <v>0.2832589285714285</v>
       </c>
       <c r="F3" t="n">
-        <v>171.8</v>
+        <v>0.06569880880314775</v>
       </c>
       <c r="G3" t="n">
-        <v>135.995488635635</v>
+        <v>23.15</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006357210400000001</v>
+        <v>17.5</v>
       </c>
       <c r="I3" t="n">
-        <v>135.55067135296</v>
+        <v>8.873795238280001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.444817282675</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[0.8571428571428571, 0.03125, 0.0625, 0.08108108108108109, 0.015625, 0.046875, 0.046875, 0.015625, 0.8, 0.015625, 0.015625, 0.015625, 0.03125, 0.42857142857142855, 0.078125, 0.015625, 0.015625, 0.109375, 0.015625, 0.0625, 0.5, 0.03125, 0.03125, 0.875, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.08108108108108109, 0.109375, 0.42857142857142855, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
-        </is>
+        <v>0.00012316575</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.86321427643</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01058096185</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.0, 0.045, 0.065, 0.075, 0.085, 0.09, 0.095, 0.1, 0.105, 0.11, 0.115, 0.12, 0.125, 0.125]</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.06409804722326488</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+          <t>[0.8571428571428571, 0.046875, 0.015625, 0.015625, 0.42857142857142855, 0.015625, 0.5, 0.046875, 0.875, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.42857142857142855, 0.5, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[0.046875, 0.043478260869565216, 0.06451612903225806, 0.078125, 0.8571428571428571, 0.03125, 0.0625, 0.021739130434782608, 0.03125, 0.046875, 0.03125, 0.015625, 0.015625, 0.03125, 0.015873015873015872, 0.046875, 0.07692307692307693, 0.03125, 0.03125, 0.015625, 0.015625, 0.02702702702702703, 0.03125, 0.015625, 0.03125, 0.015625, 0.046875, 0.12903225806451613, 0.08695652173913043, 0.0625, 0.078125, 0.03125, 0.015625, 0.03125, 0.015625, 0.078125, 0.015625, 0.022727272727272728, 0.03125, 0.046875, 0.03125, 0.8, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.0625, 0.015625, 0.03125, 0.45454545454545453, 0.03125, 0.03125, 0.015625, 0.078125, 0.015625, 0.02702702702702703, 0.015625, 0.015625, 0.015625, 0.42857142857142855, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.046875, 0.015625, 0.0, 0.09375, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.0625, 0.03125, 0.015625, 0.078125, 0.017857142857142856, 0.015625, 0.015625, 0.03125, 0.046875, 0.015625, 0.015625, 0.03125, 0.5, 0.015625, 0.04918032786885246, 0.0392156862745098, 0.046875, 0.03125, 0.015625, 0.875, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.027777777777777776, 0.03125, 0.03125, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.015873015873015872, 0.017857142857142856, 0.021739130434782608, 0.022727272727272728, 0.02702702702702703, 0.027777777777777776, 0.03125, 0.0392156862745098, 0.043478260869565216, 0.046875, 0.04918032786885246, 0.0625, 0.06451612903225806, 0.07692307692307693, 0.078125, 0.08695652173913043, 0.09375, 0.12903225806451613, 0.42857142857142855, 0.45454545454545453, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.03802462857142858</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.5319683684107769</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.015, 0.02, 0.03, 0.035, 0.04, 0.045, 0.05, 0.05]</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.005, 0.19, 0.195, 0.2, 0.205, 0.21, 0.22, 0.225, 0.405, 0.41, 0.415, 0.46, 0.465, 0.485, 0.49, 0.495, 0.52, 0.525, 0.53, 0.535, 0.54, 0.545, 0.55, 0.555, 0.56, 0.565, 0.565]</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.04149482697377848</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.09186991869918698</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="S3" t="b">
+      <c r="AA3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2285794723294723</v>
+        <v>0.765</v>
       </c>
       <c r="E4" t="n">
-        <v>284.52</v>
+        <v>0.1712875939849624</v>
       </c>
       <c r="F4" t="n">
-        <v>117.8888888888889</v>
+        <v>0.0698874429060585</v>
       </c>
       <c r="G4" t="n">
-        <v>136.801585487685</v>
+        <v>32.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00780325934</v>
+        <v>23.42105263157895</v>
       </c>
       <c r="I4" t="n">
-        <v>136.033086156535</v>
+        <v>21.289191094195</v>
       </c>
       <c r="J4" t="n">
-        <v>0.76849933115</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[0.8571428571428571, 0.21621621621621623, 0.015625, 0.078125, 0.015625, 0.8, 0.1875, 0.015625, 0.015625, 0.015625, 0.42857142857142855, 0.015625, 0.015625, 0.015625, 0.03125, 0.5, 0.875, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.078125, 0.1875, 0.21621621621621623, 0.42857142857142855, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
-        </is>
+        <v>8.153266000000001e-05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.278859637395</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0103314568</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.0, 0.045, 0.05, 0.055, 0.06, 0.065, 0.07, 0.075, 0.08, 0.085, 0.09, 0.09]</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.06155021503739487</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+          <t>[0.8571428571428571, 0.03125, 0.046875, 0.15625, 0.015625, 0.046875, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.046875, 0.42857142857142855, 0.03125, 0.015625, 0.5, 0.03125, 0.875, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.078125, 0.15625, 0.42857142857142855, 0.5, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[0.109375, 0.021739130434782608, 0.03225806451612903, 0.046875, 0.03125, 0.8571428571428571, 0.046875, 0.015625, 0.06521739130434782, 0.03125, 0.0625, 0.03125, 0.015625, 0.046875, 0.03125, 0.09375, 0.046875, 0.015873015873015872, 0.23076923076923078, 0.078125, 0.03125, 0.15625, 0.015625, 0.015625, 0.08108108108108109, 0.03125, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.12903225806451613, 0.0625, 0.015625, 0.08695652173913043, 0.015625, 0.0625, 0.0625, 0.109375, 0.015625, 0.0625, 0.140625, 0.015625, 0.0625, 0.046875, 0.015625, 0.09375, 0.03125, 0.06818181818181818, 0.015625, 0.8, 0.078125, 0.015625, 0.046875, 0.1875, 0.046875, 0.015625, 0.03125, 0.015625, 0.0625, 0.03125, 0.03125, 0.078125, 0.03125, 0.45454545454545453, 0.078125, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.140625, 0.03125, 0.0625, 0.015625, 0.10810810810810811, 0.046875, 0.015625, 0.046875, 0.42857142857142855, 0.0625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.046875, 0.015625, 0.0625, 0.03125, 0.015625, 0.0, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.015625, 0.015625, 0.0625, 0.03125, 0.0625, 0.0625, 0.03125, 0.015625, 0.046875, 0.125, 0.015625, 0.046875, 0.015625, 0.017857142857142856, 0.015625, 0.015625, 0.046875, 0.09375, 0.03125, 0.046875, 0.046875, 0.03125, 0.03125, 0.015625, 0.046875, 0.046875, 0.03125, 0.5, 0.03125, 0.03125, 0.0625, 0.0784313725490196, 0.046875, 0.03125, 0.046875, 0.03125, 0.0625, 0.03125, 0.046875, 0.015625, 0.875, 0.0625, 0.015625, 0.09375, 0.109375, 0.078125, 0.03125, 0.015625, 0.015625, 0.1388888888888889, 0.09375, 0.015625, 0.03125, 0.015625, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.015873015873015872, 0.017857142857142856, 0.021739130434782608, 0.03125, 0.03225806451612903, 0.046875, 0.0625, 0.06521739130434782, 0.06818181818181818, 0.078125, 0.0784313725490196, 0.08108108108108109, 0.08695652173913043, 0.09375, 0.10810810810810811, 0.109375, 0.125, 0.12903225806451613, 0.1388888888888889, 0.140625, 0.15625, 0.1875, 0.23076923076923078, 0.42857142857142855, 0.45454545454545453, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.08107157857142856</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.7177083213578103</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.03, 0.05, 0.065, 0.07, 0.075, 0.08, 0.085, 0.09, 0.095, 0.095]</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.005, 0.225, 0.23, 0.235, 0.24, 0.4, 0.405, 0.52, 0.6, 0.605, 0.61, 0.635, 0.64, 0.645, 0.65, 0.675, 0.68, 0.695, 0.7, 0.705, 0.71, 0.72, 0.725, 0.73, 0.735, 0.74, 0.745, 0.75, 0.755, 0.76, 0.765, 0.765]</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.05753023603624951</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1690116279069767</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="S4" t="b">
+      <c r="AA4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.16</v>
+        <v>0.135</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1516967302123552</v>
+        <v>0.82</v>
       </c>
       <c r="E5" t="n">
-        <v>339.895</v>
+        <v>0.1297949735449735</v>
       </c>
       <c r="F5" t="n">
-        <v>229.03125</v>
+        <v>0.08045170207920194</v>
       </c>
       <c r="G5" t="n">
-        <v>198.548950647465</v>
+        <v>39.35</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0554561853</v>
+        <v>22.40740740740741</v>
       </c>
       <c r="I5" t="n">
-        <v>197.975049390975</v>
+        <v>36.23233250262</v>
       </c>
       <c r="J5" t="n">
-        <v>0.57390125649</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[0.8571428571428571, 0.03125, 0.046875, 0.08108108108108109, 0.015625, 0.046875, 0.0625, 0.046875, 0.015625, 0.8, 0.1875, 0.015625, 0.09375, 0.1875, 0.015625, 0.015625, 0.03125, 0.42857142857142855, 0.140625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.5, 0.046875, 0.046875, 0.03125, 0.875, 0.0625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.08108108108108109, 0.09375, 0.140625, 0.1875, 0.42857142857142855, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
-        </is>
+        <v>7.4449625e-05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36.204691934225</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.027640568395</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.0, 0.045, 0.07, 0.1, 0.11, 0.115, 0.12, 0.125, 0.135, 0.14, 0.145, 0.15, 0.155, 0.16, 0.16]</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.07366390933168612</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+          <t>[0.8571428571428571, 0.03125, 0.046875, 0.078125, 0.046875, 0.015625, 0.0625, 0.046875, 0.046875, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.42857142857142855, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.5, 0.0625, 0.03125, 0.0625, 0.046875, 0.875, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.42857142857142855, 0.5, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[0.0625, 0.021739130434782608, 0.12903225806451613, 0.109375, 0.03125, 0.8571428571428571, 0.046875, 0.09375, 0.08695652173913043, 0.0625, 0.0625, 0.03125, 0.140625, 0.078125, 0.046875, 0.03125, 0.015625, 0.046875, 0.09523809523809523, 0.046875, 0.23076923076923078, 0.078125, 0.015625, 0.078125, 0.03125, 0.0625, 0.08108108108108109, 0.03125, 0.09375, 0.046875, 0.03125, 0.078125, 0.015625, 0.015625, 0.12903225806451613, 0.046875, 0.03125, 0.21739130434782608, 0.015625, 0.078125, 0.0625, 0.078125, 0.015625, 0.078125, 0.125, 0.09375, 0.046875, 0.015625, 0.109375, 0.015625, 0.015625, 0.046875, 0.0625, 0.8, 0.03125, 0.015625, 0.015625, 0.03125, 0.078125, 0.09375, 0.015625, 0.09375, 0.015625, 0.078125, 0.03125, 0.140625, 0.078125, 0.45454545454545453, 0.015625, 0.09375, 0.03125, 0.03125, 0.03125, 0.140625, 0.03125, 0.046875, 0.0625, 0.10810810810810811, 0.078125, 0.125, 0.0625, 0.42857142857142855, 0.03125, 0.015625, 0.03125, 0.078125, 0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.125, 0.03125, 0.046875, 0.0625, 0.015625, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.0625, 0.015625, 0.109375, 0.109375, 0.046875, 0.015625, 0.08928571428571429, 0.109375, 0.078125, 0.03125, 0.09375, 0.109375, 0.046875, 0.046875, 0.125, 0.03125, 0.015625, 0.09375, 0.046875, 0.046875, 0.03125, 0.5, 0.0625, 0.046875, 0.0625, 0.06557377049180328, 0.0784313725490196, 0.0625, 0.03125, 0.046875, 0.0625, 0.046875, 0.03125, 0.046875, 0.015625, 0.875, 0.046875, 0.015625, 0.078125, 0.125, 0.046875, 0.109375, 0.09375, 0.0625, 0.03125, 0.046875, 0.078125, 0.0625, 0.05555555555555555, 0.140625, 0.015625, 0.09375, 0.03125, 0.046875, 0.078125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.021739130434782608, 0.03125, 0.046875, 0.05555555555555555, 0.0625, 0.06557377049180328, 0.078125, 0.0784313725490196, 0.08108108108108109, 0.08695652173913043, 0.08928571428571429, 0.09375, 0.09523809523809523, 0.10810810810810811, 0.109375, 0.125, 0.12903225806451613, 0.140625, 0.21739130434782608, 0.23076923076923078, 0.42857142857142855, 0.45454545454545453, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1200950410714286</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.7590156223723453</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.035, 0.065, 0.095, 0.11, 0.115, 0.12, 0.125, 0.13, 0.135, 0.135]</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.135, 0.14, 0.305, 0.43, 0.435, 0.525, 0.53, 0.61, 0.615, 0.62, 0.625, 0.63, 0.68, 0.685, 0.69, 0.725, 0.75, 0.76, 0.78, 0.785, 0.79, 0.795, 0.8, 0.805, 0.81, 0.815, 0.82, 0.82]</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.06964227070494559</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2318324607329843</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="S5" t="b">
+      <c r="AA5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2832589285714285</v>
+        <v>0.715</v>
       </c>
       <c r="E6" t="n">
-        <v>23.15</v>
+        <v>0.1858258928571428</v>
       </c>
       <c r="F6" t="n">
-        <v>17.5</v>
+        <v>0.06717451558107485</v>
       </c>
       <c r="G6" t="n">
-        <v>8.873795238280001</v>
+        <v>80.47</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00012316575</v>
+        <v>56.3125</v>
       </c>
       <c r="I6" t="n">
-        <v>8.86321427643</v>
+        <v>36.492590062105</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01058096185</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[0.8571428571428571, 0.046875, 0.015625, 0.015625, 0.42857142857142855, 0.015625, 0.5, 0.046875, 0.875, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.42857142857142855, 0.5, 0.8571428571428571, 0.875, 1.0]</t>
-        </is>
+        <v>16.066103705655</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36.463950695965</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.02863936614</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.0, 0.015, 0.02, 0.03, 0.035, 0.04, 0.045, 0.05, 0.05]</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.04149482697377848</v>
-      </c>
-      <c r="Q6" t="inlineStr">
+          <t>[0.8571428571428571, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.42857142857142855, 0.015625, 0.046875, 0.015625, 0.5, 0.046875, 0.875, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.046875, 0.078125, 0.42857142857142855, 0.5, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[0.043478260869565216, 0.03225806451612903, 0.03125, 0.046875, 0.8571428571428571, 0.046875, 0.03125, 0.13043478260869565, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.046875, 0.015625, 0.015873015873015872, 0.015625, 0.19230769230769232, 0.0625, 0.03125, 0.0625, 0.015625, 0.015625, 0.08108108108108109, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.1935483870967742, 0.046875, 0.043478260869565216, 0.015625, 0.109375, 0.03125, 0.015625, 0.015625, 0.109375, 0.015625, 0.015625, 0.03125, 0.078125, 0.015625, 0.125, 0.022727272727272728, 0.03125, 0.8, 0.015625, 0.1875, 0.015625, 0.078125, 0.015625, 0.046875, 0.03125, 0.09375, 0.015625, 0.015625, 0.03125, 0.45454545454545453, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.078125, 0.140625, 0.015625, 0.046875, 0.015625, 0.02702702702702703, 0.046875, 0.03125, 0.125, 0.015625, 0.42857142857142855, 0.046875, 0.0625, 0.015625, 0.015625, 0.109375, 0.015625, 0.046875, 0.0625, 0.0625, 0.03125, 0.109375, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.078125, 0.015625, 0.078125, 0.046875, 0.03125, 0.109375, 0.015625, 0.015625, 0.015625, 0.017857142857142856, 0.015625, 0.046875, 0.046875, 0.09375, 0.046875, 0.046875, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.5, 0.015625, 0.03125, 0.09375, 0.046875, 0.03125, 0.015625, 0.046875, 0.109375, 0.03125, 0.015625, 0.875, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.0625, 0.03125, 0.046875, 0.03125, 0.046875, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.015873015873015872, 0.017857142857142856, 0.022727272727272728, 0.02702702702702703, 0.03125, 0.03225806451612903, 0.043478260869565216, 0.046875, 0.0625, 0.078125, 0.08108108108108109, 0.09375, 0.109375, 0.125, 0.13043478260869565, 0.140625, 0.1875, 0.19230769230769232, 0.1935483870967742, 0.42857142857142855, 0.45454545454545453, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.06736071607142857</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6702195801347864</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.045, 0.055, 0.06, 0.065, 0.07, 0.075, 0.08, 0.08]</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.295, 0.3, 0.305, 0.31, 0.315, 0.425, 0.43, 0.44, 0.54, 0.575, 0.6, 0.605, 0.62, 0.65, 0.66, 0.665, 0.67, 0.675, 0.68, 0.685, 0.69, 0.695, 0.7, 0.705, 0.71, 0.715, 0.715]</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.05414913502373219</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1438993710691824</v>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Greedy</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="S6" t="b">
+      <c r="AA6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.095</v>
+        <v>0.14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1712875939849624</v>
+        <v>0.88</v>
       </c>
       <c r="E7" t="n">
-        <v>32.3</v>
+        <v>0.173020804605626</v>
       </c>
       <c r="F7" t="n">
-        <v>23.42105263157895</v>
+        <v>0.0741196728657547</v>
       </c>
       <c r="G7" t="n">
-        <v>21.289191094195</v>
+        <v>284.52</v>
       </c>
       <c r="H7" t="n">
-        <v>8.153266000000001e-05</v>
+        <v>183.2857142857143</v>
       </c>
       <c r="I7" t="n">
-        <v>21.278859637395</v>
+        <v>140.15186537443</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0103314568</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[0.8571428571428571, 0.03125, 0.046875, 0.15625, 0.015625, 0.046875, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.046875, 0.42857142857142855, 0.03125, 0.015625, 0.5, 0.03125, 0.875, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.078125, 0.15625, 0.42857142857142855, 0.5, 0.8571428571428571, 0.875, 1.0]</t>
-        </is>
+        <v>0.004101982625</v>
+      </c>
+      <c r="K7" t="n">
+        <v>139.65483981021</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.49702556422</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.0, 0.03, 0.05, 0.065, 0.07, 0.075, 0.08, 0.085, 0.09, 0.095, 0.095]</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.05753023603624951</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+          <t>[0.8571428571428571, 0.03125, 0.109375, 0.24324324324324326, 0.015625, 0.09375, 0.0625, 0.015625, 0.8, 0.015625, 0.015625, 0.015625, 0.125, 0.0625, 0.42857142857142855, 0.1875, 0.015625, 0.015625, 0.03125, 0.015625, 0.0625, 0.5, 0.046875, 0.046875, 0.09375, 0.046875, 0.875, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.09375, 0.109375, 0.125, 0.1875, 0.24324324324324326, 0.42857142857142855, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[0.046875, 0.043478260869565216, 0.06451612903225806, 0.03125, 0.0625, 0.8571428571428571, 0.0625, 0.0625, 0.043478260869565216, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.109375, 0.078125, 0.031746031746031744, 0.03125, 0.11538461538461539, 0.046875, 0.09375, 0.515625, 0.03125, 0.046875, 0.24324324324324326, 0.046875, 0.0625, 0.03125, 0.03125, 0.09375, 0.046875, 0.046875, 0.0967741935483871, 0.09375, 0.046875, 0.17391304347826086, 0.03125, 0.015625, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.0625, 0.09375, 0.03125, 0.03125, 0.09375, 0.046875, 0.045454545454545456, 0.03125, 0.0625, 0.8, 0.15625, 0.0625, 0.03125, 0.03125, 0.046875, 0.015625, 0.0625, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.078125, 0.7272727272727273, 0.0625, 0.015625, 0.046875, 0.015625, 0.125, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.078125, 0.05405405405405406, 0.03125, 0.046875, 0.09375, 0.046875, 0.42857142857142855, 0.03125, 0.1875, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.09375, 0.046875, 0.046875, 0.03125, 0.109375, 0.0625, 0.046875, 0.015625, 0.03125, 0.03125, 0.03125, 0.046875, 0.046875, 0.03125, 0.046875, 0.0625, 0.03125, 0.03125, 0.09375, 0.046875, 0.046875, 0.0625, 0.03125, 0.171875, 0.03125, 0.03125, 0.046875, 0.03571428571428571, 0.03125, 0.03125, 0.03125, 0.046875, 0.046875, 0.03125, 0.046875, 0.03125, 0.0625, 0.03125, 0.015625, 0.03125, 0.0625, 0.046875, 0.03125, 0.109375, 0.5, 0.03125, 0.03125, 0.03125, 0.03278688524590164, 0.058823529411764705, 0.046875, 0.046875, 0.03125, 0.046875, 0.03125, 0.03125, 0.046875, 0.875, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.08333333333333333, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.046875, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.031746031746031744, 0.03278688524590164, 0.03571428571428571, 0.043478260869565216, 0.045454545454545456, 0.046875, 0.05405405405405406, 0.058823529411764705, 0.0625, 0.06451612903225806, 0.078125, 0.08333333333333333, 0.09375, 0.0967741935483871, 0.109375, 0.11538461538461539, 0.125, 0.15625, 0.171875, 0.17391304347826086, 0.1875, 0.24324324324324326, 0.42857142857142855, 0.5, 0.515625, 0.7272727272727273, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1181991873552124</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8205564913306294</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.045, 0.055, 0.07, 0.085, 0.095, 0.1, 0.105, 0.11, 0.115, 0.12, 0.125, 0.13, 0.135, 0.14, 0.14]</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.035, 0.425, 0.43, 0.435, 0.44, 0.45, 0.455, 0.63, 0.635, 0.64, 0.72, 0.725, 0.745, 0.75, 0.79, 0.795, 0.81, 0.815, 0.82, 0.825, 0.83, 0.835, 0.84, 0.845, 0.85, 0.855, 0.86, 0.865, 0.87, 0.875, 0.88, 0.88]</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.07014718712186413</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2415686274509804</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="S7" t="b">
+      <c r="AA7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03</v>
+        <v>0.125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4512648809523809</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
-        <v>23.35</v>
+        <v>0.1685468146718146</v>
       </c>
       <c r="F8" t="n">
-        <v>15.83333333333333</v>
+        <v>0.06875488320825553</v>
       </c>
       <c r="G8" t="n">
-        <v>7.821661385140001</v>
+        <v>284.85</v>
       </c>
       <c r="H8" t="n">
-        <v>8.066105000000001e-05</v>
+        <v>171.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.81107467918</v>
+        <v>135.995488635635</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01058670596</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[0.8571428571428571, 0.03125, 0.42857142857142855, 0.015625, 0.5, 0.875]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.42857142857142855, 0.5, 0.8571428571428571, 0.875, 1.0]</t>
-        </is>
+        <v>0.0006357210400000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>135.55067135296</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.444817282675</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.0, 0.005, 0.01, 0.015, 0.02, 0.025, 0.03, 0.03]</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.04187842104718516</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+          <t>[0.8571428571428571, 0.03125, 0.0625, 0.08108108108108109, 0.015625, 0.046875, 0.046875, 0.015625, 0.8, 0.015625, 0.015625, 0.015625, 0.03125, 0.42857142857142855, 0.078125, 0.015625, 0.015625, 0.109375, 0.015625, 0.0625, 0.5, 0.03125, 0.03125, 0.875, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.08108108108108109, 0.109375, 0.42857142857142855, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[0.046875, 0.043478260869565216, 0.06451612903225806, 0.03125, 0.046875, 0.8571428571428571, 0.046875, 0.03125, 0.06521739130434782, 0.0625, 0.03125, 0.03125, 0.03125, 0.078125, 0.03125, 0.046875, 0.03125, 0.109375, 0.0625, 0.031746031746031744, 0.046875, 0.19230769230769232, 0.046875, 0.03125, 0.0625, 0.03125, 0.03125, 0.08108108108108109, 0.03125, 0.046875, 0.171875, 0.046875, 0.046875, 0.03125, 0.0625, 0.12903225806451613, 0.0625, 0.0625, 0.17391304347826086, 0.03125, 0.015625, 0.078125, 0.046875, 0.0625, 0.03125, 0.046875, 0.0625, 0.078125, 0.015625, 0.046875, 0.046875, 0.03125, 0.03125, 0.046875, 0.046875, 0.045454545454545456, 0.03125, 0.078125, 0.8, 0.078125, 0.0625, 0.046875, 0.03125, 0.046875, 0.046875, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.5454545454545454, 0.046875, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.078125, 0.03125, 0.046875, 0.109375, 0.08108108108108109, 0.078125, 0.03125, 0.046875, 0.03125, 0.42857142857142855, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.046875, 0.03125, 0.0625, 0.046875, 0.140625, 0.046875, 0.03125, 0.015625, 0.03125, 0.0625, 0.03125, 0.03125, 0.03125, 0.046875, 0.109375, 0.03125, 0.046875, 0.03125, 0.046875, 0.046875, 0.03125, 0.046875, 0.03125, 0.171875, 0.03125, 0.03125, 0.03125, 0.03571428571428571, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.078125, 0.109375, 0.015625, 0.03125, 0.046875, 0.046875, 0.0625, 0.5, 0.03125, 0.03125, 0.03125, 0.03278688524590164, 0.0784313725490196, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.875, 0.03125, 0.03125, 0.03125, 0.0625, 0.046875, 0.0625, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.05555555555555555, 0.03125, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.031746031746031744, 0.03278688524590164, 0.03571428571428571, 0.043478260869565216, 0.045454545454545456, 0.046875, 0.05555555555555555, 0.0625, 0.06451612903225806, 0.06521739130434782, 0.078125, 0.0784313725490196, 0.08108108108108109, 0.109375, 0.12903225806451613, 0.140625, 0.171875, 0.17391304347826086, 0.19230769230769232, 0.42857142857142855, 0.5, 0.5454545454545454, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1062756231660232</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8256139752366195</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.045, 0.065, 0.075, 0.085, 0.09, 0.095, 0.1, 0.105, 0.11, 0.115, 0.12, 0.125, 0.125]</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.04, 0.43, 0.435, 0.44, 0.445, 0.45, 0.455, 0.645, 0.65, 0.725, 0.73, 0.735, 0.785, 0.79, 0.8, 0.82, 0.825, 0.83, 0.84, 0.845, 0.85, 0.855, 0.86, 0.865, 0.87, 0.875, 0.88, 0.88]</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.06409804722326488</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.2189054726368159</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="S8" t="b">
+      <c r="AA8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1858258928571428</v>
+        <v>0.905</v>
       </c>
       <c r="E9" t="n">
-        <v>80.47</v>
+        <v>0.1528295780899948</v>
       </c>
       <c r="F9" t="n">
-        <v>56.3125</v>
+        <v>0.07372117004617633</v>
       </c>
       <c r="G9" t="n">
-        <v>36.492590062105</v>
+        <v>284.975</v>
       </c>
       <c r="H9" t="n">
-        <v>16.066103705655</v>
+        <v>211.9722222222222</v>
       </c>
       <c r="I9" t="n">
-        <v>36.463950695965</v>
+        <v>136.801585487685</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02863936614</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[0.8571428571428571, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.42857142857142855, 0.015625, 0.046875, 0.015625, 0.5, 0.046875, 0.875, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.046875, 0.078125, 0.42857142857142855, 0.5, 0.8571428571428571, 0.875, 1.0]</t>
-        </is>
+        <v>0.00780325934</v>
+      </c>
+      <c r="K9" t="n">
+        <v>136.033086156535</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.76849933115</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.0, 0.045, 0.055, 0.06, 0.065, 0.07, 0.075, 0.08, 0.08]</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.05414913502373219</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+          <t>[0.8571428571428571, 0.03125, 0.046875, 0.109375, 0.08108108108108109, 0.125, 0.015625, 0.078125, 0.109375, 0.046875, 0.046875, 0.046875, 0.015625, 0.8, 0.0625, 0.015625, 0.0625, 0.015625, 0.015625, 0.03125, 0.42857142857142855, 0.09375, 0.078125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.0625, 0.5, 0.03125, 0.21875, 0.03125, 0.875, 0.4444444444444444, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.08108108108108109, 0.09375, 0.109375, 0.125, 0.21875, 0.42857142857142855, 0.4444444444444444, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[0.046875, 0.043478260869565216, 0.06451612903225806, 0.03125, 0.046875, 0.8571428571428571, 0.046875, 0.03125, 0.15217391304347827, 0.0625, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.125, 0.03125, 0.0625, 0.046875, 0.031746031746031744, 0.046875, 0.11538461538461539, 0.046875, 0.03125, 0.109375, 0.03125, 0.03125, 0.08108108108108109, 0.03125, 0.03125, 0.125, 0.28125, 0.125, 0.03125, 0.0625, 0.12903225806451613, 0.0625, 0.0625, 0.17391304347826086, 0.03125, 0.015625, 0.078125, 0.078125, 0.109375, 0.0625, 0.03125, 0.046875, 0.0625, 0.09375, 0.03125, 0.0625, 0.046875, 0.015625, 0.03125, 0.046875, 0.046875, 0.045454545454545456, 0.03125, 0.046875, 0.8, 0.0625, 0.0625, 0.046875, 0.03125, 0.046875, 0.046875, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.046875, 0.0625, 0.5454545454545454, 0.046875, 0.015625, 0.046875, 0.015625, 0.03125, 0.03125, 0.03125, 0.078125, 0.03125, 0.046875, 0.078125, 0.08108108108108109, 0.03125, 0.078125, 0.0625, 0.42857142857142855, 0.03125, 0.09375, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.078125, 0.03125, 0.0625, 0.046875, 0.046875, 0.03125, 0.046875, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.109375, 0.03125, 0.03125, 0.03125, 0.046875, 0.046875, 0.03125, 0.046875, 0.03125, 0.234375, 0.03125, 0.03125, 0.03125, 0.03125, 0.03571428571428571, 0.046875, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.046875, 0.0625, 0.5, 0.03125, 0.03125, 0.03125, 0.03278688524590164, 0.0784313725490196, 0.078125, 0.03125, 0.03125, 0.21875, 0.03125, 0.046875, 0.03125, 0.03125, 0.875, 0.03125, 0.03125, 0.03125, 0.0625, 0.046875, 0.125, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.4444444444444444, 0.03125, 0.046875, 0.09375, 0.015625, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.031746031746031744, 0.03278688524590164, 0.03571428571428571, 0.043478260869565216, 0.045454545454545456, 0.046875, 0.0625, 0.06451612903225806, 0.078125, 0.0784313725490196, 0.08108108108108109, 0.09375, 0.109375, 0.11538461538461539, 0.125, 0.12903225806451613, 0.15217391304347827, 0.17391304347826086, 0.21875, 0.234375, 0.28125, 0.42857142857142855, 0.4444444444444444, 0.5, 0.5454545454545454, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.1551080884438009</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8447920419643223</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.045, 0.075, 0.095, 0.11, 0.12, 0.125, 0.13, 0.14, 0.145, 0.15, 0.155, 0.16, 0.165, 0.17, 0.175, 0.18, 0.18]</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.04, 0.44, 0.445, 0.45, 0.455, 0.46, 0.465, 0.63, 0.725, 0.73, 0.77, 0.775, 0.785, 0.8, 0.815, 0.82, 0.84, 0.845, 0.85, 0.855, 0.86, 0.865, 0.87, 0.875, 0.88, 0.885, 0.89, 0.895, 0.9, 0.905, 0.905]</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.06945203389178958</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3002764976958526</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="S9" t="b">
+      <c r="AA9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.045</v>
+        <v>0.16</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7555555555555556</v>
+        <v>0.88</v>
       </c>
       <c r="E10" t="n">
-        <v>13112.615</v>
+        <v>0.1516967302123552</v>
       </c>
       <c r="F10" t="n">
-        <v>12273.77777777778</v>
+        <v>0.07873739696782513</v>
       </c>
       <c r="G10" t="n">
-        <v>88.539939870335</v>
+        <v>339.895</v>
       </c>
       <c r="H10" t="n">
-        <v>0.060199167095</v>
+        <v>229.03125</v>
       </c>
       <c r="I10" t="n">
-        <v>75.79306809793499</v>
+        <v>198.548950647465</v>
       </c>
       <c r="J10" t="n">
-        <v>12.686672605305</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[0.36666666666666664, 0.3, 0.9333333333333333, 0.9, 0.9, 1.0, 0.9, 0.7, 0.8]</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[0.29999, 0.3, 0.36666666666666664, 0.7, 0.8, 0.9, 0.9333333333333333, 1.0, 1.0]</t>
-        </is>
+        <v>0.0554561853</v>
+      </c>
+      <c r="K10" t="n">
+        <v>197.975049390975</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.57390125649</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.0, 0.005, 0.01, 0.015, 0.02, 0.035, 0.04, 0.045, 0.045]</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.3266107541982155</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>TGNNExplainer</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+          <t>[0.8571428571428571, 0.03125, 0.046875, 0.08108108108108109, 0.015625, 0.046875, 0.0625, 0.046875, 0.015625, 0.8, 0.1875, 0.015625, 0.09375, 0.1875, 0.015625, 0.015625, 0.03125, 0.42857142857142855, 0.140625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.5, 0.046875, 0.046875, 0.03125, 0.875, 0.0625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.08108108108108109, 0.09375, 0.140625, 0.1875, 0.42857142857142855, 0.5, 0.8, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[0.0625, 0.043478260869565216, 0.0967741935483871, 0.0625, 0.03125, 0.8571428571428571, 0.0625, 0.03125, 0.043478260869565216, 0.09375, 0.03125, 0.03125, 0.0625, 0.046875, 0.046875, 0.03125, 0.046875, 0.0625, 0.031746031746031744, 0.03125, 0.23076923076923078, 0.046875, 0.03125, 0.078125, 0.03125, 0.0625, 0.08108108108108109, 0.046875, 0.078125, 0.046875, 0.046875, 0.0625, 0.046875, 0.03125, 0.0967741935483871, 0.03125, 0.046875, 0.21739130434782608, 0.03125, 0.015625, 0.0625, 0.03125, 0.078125, 0.046875, 0.03125, 0.046875, 0.03125, 0.046875, 0.03125, 0.0625, 0.046875, 0.03125, 0.03125, 0.046875, 0.0625, 0.06818181818181818, 0.03125, 0.046875, 0.8, 0.1875, 0.046875, 0.03125, 0.03125, 0.046875, 0.046875, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.140625, 0.09375, 0.046875, 0.125, 0.8181818181818182, 0.1875, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.046875, 0.203125, 0.05405405405405406, 0.046875, 0.046875, 0.21875, 0.42857142857142855, 0.03125, 0.140625, 0.03125, 0.03125, 0.046875, 0.046875, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.109375, 0.0625, 0.03125, 0.046875, 0.015625, 0.046875, 0.03125, 0.03125, 0.046875, 0.0625, 0.03125, 0.140625, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.0625, 0.046875, 0.03125, 0.3125, 0.03125, 0.03125, 0.03125, 0.05357142857142857, 0.046875, 0.0625, 0.0625, 0.046875, 0.03125, 0.03125, 0.0625, 0.03125, 0.09375, 0.03125, 0.015625, 0.03125, 0.046875, 0.046875, 0.0625, 0.5, 0.03125, 0.046875, 0.03125, 0.03278688524590164, 0.0392156862745098, 0.046875, 0.046875, 0.046875, 0.03125, 0.046875, 0.046875, 0.03125, 0.875, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.078125, 0.3333333333333333, 0.078125, 0.046875, 0.03125, 0.03125, 0.0625, 0.0625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.031746031746031744, 0.03278688524590164, 0.0392156862745098, 0.043478260869565216, 0.046875, 0.05357142857142857, 0.05405405405405406, 0.0625, 0.06818181818181818, 0.078125, 0.08108108108108109, 0.09375, 0.0967741935483871, 0.109375, 0.125, 0.140625, 0.1875, 0.203125, 0.21739130434782608, 0.21875, 0.23076923076923078, 0.3125, 0.3333333333333333, 0.42857142857142855, 0.5, 0.8, 0.8181818181818182, 0.8571428571428571, 0.875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.1383849981660232</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.816573559743891</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.045, 0.07, 0.1, 0.11, 0.115, 0.12, 0.125, 0.135, 0.14, 0.145, 0.15, 0.155, 0.16, 0.16]</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.035, 0.355, 0.36, 0.365, 0.37, 0.38, 0.59, 0.595, 0.6, 0.715, 0.72, 0.75, 0.755, 0.77, 0.78, 0.785, 0.795, 0.81, 0.82, 0.825, 0.83, 0.835, 0.84, 0.845, 0.85, 0.855, 0.86, 0.865, 0.87, 0.875, 0.88, 0.88]</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.07366390933168612</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2707692307692308</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="S10" t="b">
+      <c r="AA10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1170,636 +1480,906 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.43</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05837081721922329</v>
+        <v>0.6947368421052632</v>
       </c>
       <c r="E11" t="n">
-        <v>237.155</v>
+        <v>0.5817460317460317</v>
       </c>
       <c r="F11" t="n">
-        <v>191.4767441860465</v>
+        <v>0.3981546231546231</v>
       </c>
       <c r="G11" t="n">
-        <v>160.05889744245</v>
+        <v>13498.73684210526</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001562266365</v>
+        <v>13805</v>
       </c>
       <c r="I11" t="n">
-        <v>159.379284518825</v>
+        <v>95.53590724198948</v>
       </c>
       <c r="J11" t="n">
-        <v>0.679612923625</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[0.0625, 0.109375, 0.057692307692307696, 0.015625, 0.015625, 0.203125, 0.015625, 0.015625, 0.09375, 0.015625, 0.1, 0.015625, 0.015625, 0.078125, 0.015625, 0.078125, 0.109375, 0.015625, 0.171875, 0.09375, 0.015625, 0.03125, 0.015625, 0.015625, 0.125, 0.03125, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.078125, 0.015625, 0.015625, 0.09375, 0.015625, 0.015625, 0.03125, 0.03125, 0.16666666666666666, 0.015625, 0.015625, 0.022222222222222223, 0.046875, 0.078125, 0.0851063829787234, 0.015625, 0.09375, 0.125, 0.03125, 0.03125, 0.46875, 0.02127659574468085, 0.015625, 0.046875, 0.16666666666666666, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.25, 0.015625, 0.015625, 0.015625, 0.046875, 0.09375, 0.15625, 0.015625, 0.34375, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.140625, 0.109375, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.057692307692307696, 0.0625, 0.078125, 0.0851063829787234, 0.09375, 0.1, 0.109375, 0.125, 0.140625, 0.15625, 0.16666666666666666, 0.171875, 0.203125, 0.25, 0.34375, 0.46875, 1.0]</t>
-        </is>
+        <v>0.04703082879473684</v>
+      </c>
+      <c r="K11" t="n">
+        <v>80.1892027992</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15.29967361399474</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.0, 0.205, 0.21, 0.22, 0.225, 0.265, 0.285, 0.29, 0.305, 0.325, 0.33, 0.355, 0.36, 0.375, 0.385, 0.39, 0.395, 0.405, 0.41, 0.415, 0.42, 0.425, 0.43, 0.43]</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.06958729862648823</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+          <t>[0.6333333333333333, 0.2, 0.8666666666666667, 0.6666666666666666, 0.23333333333333334, 0.4666666666666667, 0.2, 0.13333333333333333, 0.9333333333333333, 0.26666666666666666, 0.9666666666666667, 0.9, 0.7, 0.13333333333333333, 0.9, 0.9333333333333333, 0.8333333333333334, 0.8333333333333334, 0.7333333333333333, 0.1, 0.7666666666666667, 0.16666666666666666, 0.6, 0.9333333333333333, 0.23333333333333334, 0.6333333333333333, 0.7666666666666667, 0.26666666666666666, 0.4, 0.7, 0.9, 0.6333333333333333, 0.7666666666666667, 0.1, 0.7666666666666667, 0.9666666666666667, 0.7333333333333333, 0.7333333333333333, 0.6, 0.5666666666666667, 0.06666666666666667, 0.5]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[0.06665666666666667, 0.06666666666666667, 0.1, 0.13333333333333333, 0.16666666666666666, 0.2, 0.23333333333333334, 0.26666666666666666, 0.4, 0.4666666666666667, 0.5, 0.5666666666666667, 0.6, 0.6333333333333333, 0.6666666666666666, 0.7, 0.7333333333333333, 0.7666666666666667, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9333333333333333, 0.9666666666666667, 1.0]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[0.06666666666666667, 0.06666666666666667, 0.23333333333333334, 0.13333333333333333, 0.06666666666666667, 0.9, 0.7666666666666667, 0.6666666666666666, 0.06666666666666667, 0.03333333333333333, 0.1, 0.6666666666666666, 0.36666666666666664, 0.9, 0.2, 0.06666666666666667, 0.0, 0.8666666666666667, 0.0, 0.9333333333333333, 0.0, 0.0, 0.6666666666666666, 0.1, 0.7, 0.06666666666666667, 0.0, 0.6, 0.06666666666666667, 0.9, 0.8666666666666667, 0.26666666666666666, 0.43333333333333335, 0.13333333333333333, 0.8, 0.3333333333333333, 0.9, 0.13333333333333333, 0.0, 0.9333333333333333, 0.26666666666666666, 0.8333333333333334, 0.9, 0.7, 0.0, 0.13333333333333333, 0.36666666666666664, 0.0, 0.9333333333333333, 0.0, 0.0, 0.8, 0.8333333333333334, 0.4, 0.26666666666666666, 0.23333333333333334, 0.0, 0.6333333333333333, 0.9230769230769231, 0.9333333333333333, 0.13333333333333333, 0.06666666666666667, 0.0, 0.13333333333333333, 0.9333333333333333, 0.1, 0.7666666666666667, 0.06666666666666667, 0.0, 0.16666666666666666, 0.8666666666666667, 0.6, 0.9333333333333333, 0.16666666666666666, 0.23333333333333334, 0.9333333333333333, 0.0, 0.03333333333333333, 0.26666666666666666, 0.5666666666666667, 0.0, 0.0, 0.4666666666666667, 0.03333333333333333, 0.4, 0.8666666666666667, 0.6666666666666666, 0.4, 0.5666666666666667, 0.06666666666666667, 0.9, 0.03333333333333333, 0.03333333333333333, 0.4666666666666667, 0.03333333333333333, 0.16666666666666666, 0.06666666666666667, 0.0, 0.9333333333333333, 0.9, 0.16666666666666666, 0.9, 0.6333333333333333, 0.1, 0.7666666666666667, 0.0, 0.1, 0.36666666666666664, 0.7666666666666667, 0.9666666666666667, 0.7333333333333333, 0.36666666666666664, 0.9333333333333333, 0.2, 0.9, 0.7333333333333333, 0.1, 0.5333333333333333, 0.6333333333333333, 0.6, 0.1, 0.1, 0.06666666666666667, 0.26666666666666666, 0.03333333333333333, 0.0, 0.9, 0.9333333333333333, 0.4, 0.6, 0.5, 0.03333333333333333]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.03333333333333333, 0.06666666666666667, 0.1, 0.13333333333333333, 0.16666666666666666, 0.2, 0.23333333333333334, 0.26666666666666666, 0.3333333333333333, 0.36666666666666664, 0.4, 0.43333333333333335, 0.4666666666666667, 0.5, 0.5333333333333333, 0.5666666666666667, 0.6, 0.6333333333333333, 0.6666666666666666, 0.7, 0.7333333333333333, 0.7666666666666667, 0.8, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9230769230769231, 0.9333333333333333, 0.9666666666666667, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.09183335833333334</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.4061158596153847</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.005, 0.015, 0.025, 0.03, 0.04, 0.05, 0.06, 0.065, 0.07, 0.075, 0.08, 0.09, 0.105, 0.11, 0.12, 0.135, 0.155, 0.165, 0.17, 0.185, 0.2, 0.21, 0.21]</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.095, 0.135, 0.195, 0.235, 0.265, 0.285, 0.295, 0.31, 0.335, 0.34, 0.36, 0.38, 0.385, 0.395, 0.4, 0.405, 0.415, 0.435, 0.45, 0.47, 0.48, 0.49, 0.51, 0.52, 0.53, 0.55, 0.6, 0.605, 0.655, 0.66, 0.66]</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>0.6947368421052632</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2210526315789474</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.4327986049038681</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.3353901996370236</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>TGNNExplainer</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S11" t="b">
+      <c r="AA11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.48</v>
+        <v>0.105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05097503244796736</v>
+        <v>0.925</v>
       </c>
       <c r="E12" t="n">
-        <v>234</v>
+        <v>0.02466192446245638</v>
       </c>
       <c r="F12" t="n">
-        <v>196.3125</v>
+        <v>0.01792948533640023</v>
       </c>
       <c r="G12" t="n">
-        <v>143.076116062475</v>
+        <v>18.55</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00062982538</v>
+        <v>15.23809523809524</v>
       </c>
       <c r="I12" t="n">
-        <v>142.48703846286</v>
+        <v>18.499238031915</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5890775996150001</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[0.03125, 0.03125, 0.015625, 0.015625, 0.078125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.1, 0.015625, 0.015625, 0.078125, 0.015625, 0.0625, 0.171875, 0.046875, 0.015625, 0.078125, 0.078125, 0.015625, 0.09375, 0.140625, 0.03125, 0.015625, 0.09375, 0.015625, 0.03125, 0.03125, 0.078125, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625, 0.015625, 0.015625, 0.15625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.022222222222222223, 0.15625, 0.0625, 0.0425531914893617, 0.015625, 0.203125, 0.03125, 0.03125, 0.140625, 0.02127659574468085, 0.015625, 0.16666666666666666, 0.15625, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.453125, 0.109375, 0.03125, 0.046875, 0.015625, 0.0625, 0.078125, 0.015625, 0.03125, 0.015625, 0.015625, 0.109375, 0.015625, 0.078125, 0.0625, 0.03125, 0.09375, 0.015625, 0.015625, 0.015625, 0.15625, 0.015625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.046875, 0.0625, 0.078125, 0.09375, 0.1, 0.109375, 0.140625, 0.15625, 0.16666666666666666, 0.171875, 0.203125, 0.453125, 1.0]</t>
-        </is>
+        <v>8.293925999999999e-05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>18.490891701095</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.008346330820000001</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.0, 0.21, 0.215, 0.225, 0.23, 0.32, 0.325, 0.34, 0.36, 0.395, 0.41, 0.415, 0.43, 0.44, 0.46, 0.465, 0.47, 0.475, 0.48, 0.48]</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.05567594826733203</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+          <t>[0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.0625, 0.022222222222222223, 0.0425531914893617, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.0625, 1.0]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.046875, 0.0, 0.015625, 0.03125, 0.015625, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03125, 0.0, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.0, 0.0, 0.1111111111111111, 0.015625, 0.0, 0.015625, 0.03125, 0.015625, 0.0, 0.03125, 0.0, 0.0, 0.03125, 0.0, 0.015625, 0.015625, 0.25, 0.03125, 0.0, 0.03125, 0.015625, 0.0, 0.03125, 0.015625, 0.03125, 0.0, 0.015625, 0.015625, 0.0, 0.015625, 0.03125, 0.0, 0.0, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.0, 0.0, 0.0, 0.03125, 0.0, 0.0, 0.03125, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.0, 0.0, 0.046875, 0.015625, 0.046875, 0.0, 0.0625, 0.015625, 0.015625, 0.015625, 0.05555555555555555, 0.0, 0.03125, 0.0, 0.015625, 0.015625, 0.022222222222222223, 0.046875, 0.046875, 0.0, 0.0425531914893617, 0.0, 0.0, 0.0, 0.0, 0.015625, 0.03125, 0.0, 0.0, 0.03125, 0.0, 0.02127659574468085, 0.0, 0.015625, 0.015625, 0.015625, 0.03125, 0.0, 0.015625, 0.1111111111111111, 0.015625, 0.0, 0.015625, 0.0, 0.015625, 0.015625, 0.03125, 0.03125, 0.0, 0.015625, 0.0, 0.015625, 0.046875, 0.015625, 0.0, 0.015625, 0.015625, 0.0, 0.0, 0.0, 0.015625, 0.0, 0.015625, 0.0, 0.03125, 0.015625, 0.015625, 0.0, 0.03125, 0.0, 0.0, 0.03125, 0.046875, 0.015625, 0.03125, 0.03125, 0.0, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03125, 0.015625, 0.0, 0.015625, 0.0, 0.0, 0.0, 0.015625, 0.0, 0.0625, 0.015625, 0.03125, 0.0, 0.0, 0.03125, 0.015625, 0.0, 0.0, 0.09375, 0.015625, 0.0, 0.03125, 0.03125, 0.015625, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.046875, 0.05555555555555555, 0.0625, 0.09375, 0.1111111111111111, 0.25, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.1026633770981087</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9122282636229315</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.055, 0.06, 0.095, 0.1, 0.105, 0.105]</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.355, 0.645, 0.65, 0.655, 0.84, 0.845, 0.89, 0.895, 0.905, 0.91, 0.92, 0.925, 0.925]</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.01824342778232406</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.1885922330097088</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="S12" t="b">
+      <c r="AA12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.325</v>
+        <v>0.3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07017517633810837</v>
+        <v>0.895</v>
       </c>
       <c r="E13" t="n">
-        <v>236.26</v>
+        <v>0.0350075253210031</v>
       </c>
       <c r="F13" t="n">
-        <v>153.3384615384615</v>
+        <v>0.03123609130050055</v>
       </c>
       <c r="G13" t="n">
-        <v>146.141274435285</v>
+        <v>24.65</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0035765692</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>142.875096815785</v>
+        <v>15.91719749749</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2661776195</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[0.484375, 0.038461538461538464, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.1, 0.015625, 0.015625, 0.015625, 0.203125, 0.015625, 0.09375, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.28125, 0.03125, 0.015625, 0.015625, 0.022222222222222223, 0.015625, 0.265625, 0.03125, 0.390625, 0.02127659574468085, 0.015625, 0.125, 0.16666666666666666, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.59375, 0.015625, 0.015625, 0.015625, 0.125, 0.109375, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.640625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.038461538461538464, 0.046875, 0.09375, 0.1, 0.109375, 0.125, 0.16666666666666666, 0.203125, 0.265625, 0.28125, 0.390625, 0.484375, 0.59375, 0.640625, 1.0]</t>
-        </is>
+        <v>8.031752000000001e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15.908737505835</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.008459991654999999</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.0, 0.205, 0.21, 0.22, 0.225, 0.245, 0.25, 0.26, 0.265, 0.27, 0.275, 0.285, 0.29, 0.295, 0.3, 0.305, 0.31, 0.315, 0.32, 0.325, 0.325]</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.07345612704983794</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+          <t>[0.046875, 0.03125, 0.078125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.0625, 0.078125, 0.03125, 0.046875, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.046875, 0.0625, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.022222222222222223, 0.046875, 0.02127659574468085, 0.03125, 0.046875, 0.09375, 0.046875, 0.02127659574468085, 0.015625, 0.16666666666666666, 0.0625, 0.02127659574468085, 0.0196078431372549, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.046875, 0.015625, 0.0625, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.16666666666666666, 1.0]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[0.09375, 0.046875, 0.0, 0.03125, 0.078125, 0.015625, 0.015625, 0.015625, 0.046875, 0.0, 0.015625, 0.0, 0.046875, 0.0, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.0, 0.0, 0.1111111111111111, 0.015625, 0.03125, 0.015625, 0.109375, 0.015625, 0.0625, 0.03125, 0.046875, 0.046875, 0.0, 0.03125, 0.0625, 0.25, 0.0, 0.078125, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.0625, 0.03125, 0.046875, 0.0625, 0.015625, 0.078125, 0.0, 0.078125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.078125, 0.046875, 0.015625, 0.015625, 0.0625, 0.046875, 0.046875, 0.015625, 0.015625, 0.0625, 0.109375, 0.03125, 0.0, 0.046875, 0.015625, 0.015625, 0.03125, 0.05555555555555555, 0.015625, 0.046875, 0.0, 0.015625, 0.015625, 0.022222222222222223, 0.015625, 0.046875, 0.0, 0.02127659574468085, 0.0, 0.0, 0.0, 0.0, 0.015625, 0.015625, 0.09375, 0.015625, 0.046875, 0.09375, 0.046875, 0.02127659574468085, 0.0625, 0.015625, 0.015625, 0.015625, 0.046875, 0.0, 0.015625, 0.16666666666666666, 0.0625, 0.02127659574468085, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0, 0.03125, 0.0, 0.015625, 0.0, 0.015625, 0.015625, 0.0, 0.015625, 0.0, 0.015625, 0.0, 0.0625, 0.0, 0.046875, 0.03125, 0.03125, 0.0, 0.046875, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.0625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.046875, 0.046875, 0.046875, 0.0625, 0.0, 0.0, 0.015625, 0.015625, 0.03125, 0.0, 0.0625, 0.03125, 0.0, 0.09375, 0.03125, 0.0625, 0.015625, 0.046875, 0.03125, 0.0, 0.078125, 0.015625, 0.03125, 0.0, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.0]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.05555555555555555, 0.0625, 0.078125, 0.09375, 0.109375, 0.1111111111111111, 0.16666666666666666, 0.25, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.2907080250556251</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8721265757092198</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>[0.0, 0.11, 0.115, 0.13, 0.135, 0.21, 0.245, 0.28, 0.29, 0.295, 0.3, 0.3]</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>[0.0, 0.16, 0.465, 0.48, 0.485, 0.625, 0.74, 0.745, 0.815, 0.85, 0.87, 0.88, 0.885, 0.89, 0.895, 0.895]</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.03104111977578811</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.4493723849372385</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="S13" t="b">
+      <c r="AA13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.54</v>
+        <v>0.385</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03880443292620841</v>
+        <v>0.88</v>
       </c>
       <c r="E14" t="n">
-        <v>272.515</v>
+        <v>0.0354732737711461</v>
       </c>
       <c r="F14" t="n">
-        <v>233.3425925925926</v>
+        <v>0.0378542321486138</v>
       </c>
       <c r="G14" t="n">
-        <v>169.60584976992</v>
+        <v>27.55</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05342365656</v>
+        <v>21.55844155844156</v>
       </c>
       <c r="I14" t="n">
-        <v>168.86504251685</v>
+        <v>27.449241047515</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7408072530700001</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[0.03125, 0.03125, 0.057692307692307696, 0.015625, 0.015625, 0.046875, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.1, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.046875, 0.03125, 0.015625, 0.046875, 0.0625, 0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.125, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.0625, 0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.08333333333333333, 0.015625, 0.046875, 0.0625, 0.015625, 0.022222222222222223, 0.03125, 0.046875, 0.0425531914893617, 0.015625, 0.046875, 0.03125, 0.0625, 0.03125, 0.03125, 0.02127659574468085, 0.015625, 0.046875, 0.16666666666666666, 0.0625, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.03125, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.109375, 0.0625, 0.15625, 0.046875, 0.03125, 0.046875, 0.046875, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.140625, 0.046875, 0.015625, 0.0625, 0.0625, 0.03125, 0.046875, 0.015625, 0.015625, 0.1875, 0.015625, 0.0625, 0.015625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.046875, 0.057692307692307696, 0.0625, 0.08333333333333333, 0.1, 0.109375, 0.125, 0.140625, 0.15625, 0.16666666666666666, 0.1875, 1.0]</t>
-        </is>
+        <v>7.189833500000001e-05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>27.429687967645</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01955307987</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.0, 0.21, 0.215, 0.225, 0.23, 0.345, 0.35, 0.43, 0.435, 0.5, 0.505, 0.51, 0.515, 0.52, 0.525, 0.53, 0.535, 0.54, 0.54]</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.05841099100237477</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
+          <t>[0.015625, 0.03125, 0.046875, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.109375, 0.03125, 0.015625, 0.03125, 0.046875, 0.015625, 0.109375, 0.0625, 0.078125, 0.015625, 0.0625, 0.03125, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.022222222222222223, 0.046875, 0.02127659574468085, 0.015625, 0.03125, 0.078125, 0.046875, 0.03125, 0.02127659574468085, 0.015625, 0.16666666666666666, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.09375, 0.03125, 0.046875, 0.015625, 0.0625, 0.03125, 0.109375, 0.046875, 0.015625, 0.078125, 0.09375, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.16666666666666666, 1.0]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[0.109375, 0.015625, 0.0, 0.03125, 0.046875, 0.078125, 0.03125, 0.0, 0.0, 0.0625, 0.0625, 0.0, 0.046875, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.03333333333333333, 0.015625, 0.1111111111111111, 0.0, 0.03125, 0.015625, 0.109375, 0.109375, 0.0625, 0.046875, 0.03125, 0.03125, 0.0, 0.03125, 0.046875, 0.25, 0.0625, 0.015625, 0.109375, 0.0625, 0.078125, 0.015625, 0.015625, 0.0625, 0.0625, 0.0625, 0.015625, 0.0, 0.0, 0.015625, 0.046875, 0.015625, 0.015625, 0.078125, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.09375, 0.0, 0.015625, 0.09375, 0.046875, 0.015625, 0.0, 0.015625, 0.109375, 0.015625, 0.078125, 0.015625, 0.015625, 0.046875, 0.08333333333333333, 0.015625, 0.046875, 0.046875, 0.03125, 0.015625, 0.022222222222222223, 0.046875, 0.046875, 0.0, 0.02127659574468085, 0.0, 0.03125, 0.0, 0.0, 0.015625, 0.046875, 0.0625, 0.046875, 0.015625, 0.03125, 0.02127659574468085, 0.078125, 0.015625, 0.0, 0.0, 0.046875, 0.0, 0.046875, 0.16666666666666666, 0.109375, 0.0, 0.03125, 0.046875, 0.015625, 0.015625, 0.03125, 0.0, 0.015625, 0.03125, 0.0, 0.03125, 0.03125, 0.03125, 0.078125, 0.0, 0.0, 0.03125, 0.0, 0.0, 0.0625, 0.046875, 0.03125, 0.046875, 0.0, 0.03125, 0.046875, 0.046875, 0.09375, 0.109375, 0.03125, 0.015625, 0.03125, 0.046875, 0.015625, 0.0625, 0.03125, 0.03125, 0.03125, 0.109375, 0.046875, 0.015625, 0.09375, 0.078125, 0.09375, 0.0, 0.0, 0.03125, 0.015625, 0.0, 0.0, 0.015625, 0.03125, 0.0, 0.03125, 0.015625, 0.015625, 0.125, 0.046875, 0.0625, 0.03125, 0.0, 0.078125, 0.109375, 0.0, 0.03125, 0.046875, 0.015625, 0.0, 0.03125, 0.0625, 0.0, 0.015625, 0.140625]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.03333333333333333, 0.046875, 0.0625, 0.078125, 0.08333333333333333, 0.09375, 0.109375, 0.1111111111111111, 0.125, 0.140625, 0.16666666666666666, 0.25, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.3726989644208038</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.851522699143026</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.18, 0.19, 0.195, 0.275, 0.315, 0.34, 0.355, 0.365, 0.38, 0.385, 0.385]</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.17, 0.37, 0.38, 0.385, 0.545, 0.55, 0.675, 0.74, 0.78, 0.785, 0.81, 0.855, 0.86, 0.865, 0.87, 0.875, 0.88, 0.88]</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0370234277221527</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.5356521739130434</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="S14" t="b">
+      <c r="AA14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.105</v>
+        <v>0.28</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02466192446245638</v>
+        <v>0.895</v>
       </c>
       <c r="E15" t="n">
-        <v>18.55</v>
+        <v>0.02177145570107476</v>
       </c>
       <c r="F15" t="n">
-        <v>15.23809523809524</v>
+        <v>0.02512068281079038</v>
       </c>
       <c r="G15" t="n">
-        <v>18.499238031915</v>
+        <v>69.355</v>
       </c>
       <c r="H15" t="n">
-        <v>8.293925999999999e-05</v>
+        <v>64.125</v>
       </c>
       <c r="I15" t="n">
-        <v>18.490891701095</v>
+        <v>54.51061719374501</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008346330820000001</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.0625, 0.022222222222222223, 0.0425531914893617, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.0625, 1.0]</t>
-        </is>
+        <v>22.243561069955</v>
+      </c>
+      <c r="K15" t="n">
+        <v>54.485956269825</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.02466092392</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.0, 0.055, 0.06, 0.095, 0.1, 0.105, 0.105]</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.01824342778232406</v>
-      </c>
-      <c r="Q15" t="inlineStr">
+          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.06666666666666667, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.022222222222222223, 0.046875, 0.02127659574468085, 0.015625, 0.02127659574468085, 0.015625, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.078125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.0625, 0.06666666666666667, 0.078125, 1.0]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[0.046875, 0.015625, 0.0, 0.046875, 0.03125, 0.03125, 0.015625, 0.015625, 0.019230769230769232, 0.03125, 0.015625, 0.015625, 0.0, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.06666666666666667, 0.015625, 0.1111111111111111, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0, 0.015625, 0.03125, 0.25, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.0625, 0.015625, 0.03125, 0.0, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.0625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.0625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.05555555555555555, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.022222222222222223, 0.046875, 0.03125, 0.015625, 0.02127659574468085, 0.015625, 0.015625, 0.0, 0.0, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.0625, 0.015625, 0.02127659574468085, 0.015625, 0.015625, 0.015625, 0.0, 0.015625, 0.1111111111111111, 0.015625, 0.02127659574468085, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.046875, 0.0, 0.03125, 0.0, 0.015625, 0.0, 0.03125, 0.0, 0.015625, 0.046875, 0.03125, 0.0, 0.03125, 0.046875, 0.015625, 0.03125, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.078125, 0.03125, 0.0, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.019230769230769232, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.05555555555555555, 0.0625, 0.06666666666666667, 0.078125, 0.1111111111111111, 0.25, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.274198951444514</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8784207721835788</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.205, 0.21, 0.225, 0.23, 0.255, 0.26, 0.27, 0.275, 0.28, 0.28]</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.065, 0.565, 0.57, 0.585, 0.59, 0.765, 0.825, 0.83, 0.87, 0.875, 0.88, 0.89, 0.895, 0.895]</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.02429980033134367</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.4265531914893617</v>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>Greedy</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="S15" t="b">
+      <c r="AA15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0350075253210031</v>
+        <v>0.88</v>
       </c>
       <c r="E16" t="n">
-        <v>24.65</v>
+        <v>0.05837081721922329</v>
       </c>
       <c r="F16" t="n">
-        <v>20.83333333333333</v>
+        <v>0.07173434942716858</v>
       </c>
       <c r="G16" t="n">
-        <v>15.91719749749</v>
+        <v>237.155</v>
       </c>
       <c r="H16" t="n">
-        <v>8.031752000000001e-05</v>
+        <v>191.4767441860465</v>
       </c>
       <c r="I16" t="n">
-        <v>15.908737505835</v>
+        <v>160.05889744245</v>
       </c>
       <c r="J16" t="n">
-        <v>0.008459991654999999</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[0.046875, 0.03125, 0.078125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.0625, 0.078125, 0.03125, 0.046875, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.046875, 0.0625, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.022222222222222223, 0.046875, 0.02127659574468085, 0.03125, 0.046875, 0.09375, 0.046875, 0.02127659574468085, 0.015625, 0.16666666666666666, 0.0625, 0.02127659574468085, 0.0196078431372549, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.046875, 0.015625, 0.0625, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.16666666666666666, 1.0]</t>
-        </is>
+        <v>0.001562266365</v>
+      </c>
+      <c r="K16" t="n">
+        <v>159.379284518825</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.679612923625</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0.0, 0.11, 0.115, 0.13, 0.135, 0.21, 0.245, 0.28, 0.29, 0.295, 0.3, 0.3]</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.03104111977578811</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
+          <t>[0.0625, 0.109375, 0.057692307692307696, 0.015625, 0.015625, 0.203125, 0.015625, 0.015625, 0.09375, 0.015625, 0.1, 0.015625, 0.015625, 0.078125, 0.015625, 0.078125, 0.109375, 0.015625, 0.171875, 0.09375, 0.015625, 0.03125, 0.015625, 0.015625, 0.125, 0.03125, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.046875, 0.078125, 0.015625, 0.015625, 0.09375, 0.015625, 0.015625, 0.03125, 0.03125, 0.16666666666666666, 0.015625, 0.015625, 0.022222222222222223, 0.046875, 0.078125, 0.0851063829787234, 0.015625, 0.09375, 0.125, 0.03125, 0.03125, 0.46875, 0.02127659574468085, 0.015625, 0.046875, 0.16666666666666666, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.25, 0.015625, 0.015625, 0.015625, 0.046875, 0.09375, 0.15625, 0.015625, 0.34375, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.140625, 0.109375, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.057692307692307696, 0.0625, 0.078125, 0.0851063829787234, 0.09375, 0.1, 0.109375, 0.125, 0.140625, 0.15625, 0.16666666666666666, 0.171875, 0.203125, 0.25, 0.34375, 0.46875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0625, 0.0, 0.109375, 0.0625, 0.109375, 0.03125, 0.078125, 0.057692307692307696, 0.046875, 0.015625, 0.0, 0.03125, 0.015625, 0.203125, 0.0625, 0.0625, 0.09375, 0.015625, 0.09375, 0.015625, 0.1, 0.015625, 0.4444444444444444, 0.015625, 0.078125, 0.015625, 0.078125, 0.078125, 0.03125, 0.109375, 0.203125, 0.0, 0.171875, 0.09375, 0.75, 0.125, 0.046875, 0.078125, 0.046875, 0.078125, 0.015625, 0.0625, 0.125, 0.03125, 0.03125, 0.015625, 0.0625, 0.0, 0.015625, 0.046875, 0.015625, 0.0625, 0.03125, 0.1875, 0.015625, 0.015625, 0.015625, 0.109375, 0.03125, 0.21875, 0.03125, 0.015625, 0.109375, 0.046875, 0.078125, 0.125, 0.0625, 0.015625, 0.0, 0.03125, 0.015625, 0.046875, 0.09375, 0.015625, 0.015625, 0.03125, 0.16666666666666666, 0.015625, 0.046875, 0.046875, 0.078125, 0.015625, 0.022222222222222223, 0.046875, 0.078125, 0.046875, 0.09375, 0.0, 0.0, 0.0, 0.125, 0.03125, 0.03125, 0.09375, 0.03125, 0.46875, 0.02127659574468085, 0.015625, 0.046875, 0.03125, 0.109375, 0.0, 0.03125, 0.16666666666666666, 0.02127659574468085, 0.015625, 0.25, 0.015625, 0.0625, 0.03125, 0.03125, 0.015625, 0.03125, 0.0, 0.046875, 0.09375, 0.078125, 0.0, 0.0, 0.09375, 0.0, 0.03125, 0.078125, 0.046875, 0.046875, 0.15625, 0.0, 0.21875, 0.0, 0.078125, 0.09375, 0.078125, 0.109375, 0.03125, 0.0625, 0.15625, 0.015625, 0.0625, 0.34375, 0.015625, 0.25, 0.359375, 0.015625, 0.046875, 0.25, 0.046875, 0.0625, 0.03125, 0.0625, 0.140625, 0.109375, 0.0, 0.046875, 0.078125, 0.0, 0.03125, 0.03125, 0.015625, 0.0625, 0.046875, 0.3125, 0.03125, 0.09375, 0.171875, 0.046875, 0.109375, 0.03125, 0.03125, 0.015625, 0.03125, 0.0625, 0.09375, 0.015625, 0.015625, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.057692307692307696, 0.0625, 0.078125, 0.09375, 0.1, 0.109375, 0.125, 0.140625, 0.15625, 0.16666666666666666, 0.171875, 0.1875, 0.203125, 0.21875, 0.25, 0.3125, 0.34375, 0.359375, 0.4444444444444444, 0.46875, 0.75, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.4066533728867816</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8229706832242225</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.205, 0.21, 0.22, 0.225, 0.265, 0.285, 0.29, 0.305, 0.325, 0.33, 0.355, 0.36, 0.375, 0.385, 0.39, 0.395, 0.405, 0.41, 0.415, 0.42, 0.425, 0.43, 0.43]</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.09, 0.25, 0.26, 0.265, 0.405, 0.5, 0.505, 0.58, 0.65, 0.705, 0.71, 0.755, 0.775, 0.78, 0.79, 0.8, 0.81, 0.815, 0.825, 0.835, 0.85, 0.855, 0.86, 0.865, 0.87, 0.875, 0.88, 0.88]</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.06958729862648823</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.5777099236641221</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="S16" t="b">
+      <c r="AA16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.065</v>
+        <v>0.48</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03397435897435897</v>
+        <v>0.88</v>
       </c>
       <c r="E17" t="n">
-        <v>22.35</v>
+        <v>0.05097503244796736</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>0.05765245346777926</v>
       </c>
       <c r="G17" t="n">
-        <v>26.58926800007</v>
+        <v>234</v>
       </c>
       <c r="H17" t="n">
-        <v>8.008651499999999e-05</v>
+        <v>196.3125</v>
       </c>
       <c r="I17" t="n">
-        <v>26.575119115715</v>
+        <v>143.076116062475</v>
       </c>
       <c r="J17" t="n">
-        <v>0.014148884355</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.06666666666666667, 0.046875, 0.046875, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.06666666666666667, 0.078125, 1.0]</t>
-        </is>
+        <v>0.00062982538</v>
+      </c>
+      <c r="K17" t="n">
+        <v>142.48703846286</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5890775996150001</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.0, 0.035, 0.04, 0.05, 0.055, 0.06, 0.065, 0.065]</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.02387352814148027</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
+          <t>[0.03125, 0.03125, 0.015625, 0.015625, 0.078125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.1, 0.015625, 0.015625, 0.078125, 0.015625, 0.0625, 0.171875, 0.046875, 0.015625, 0.078125, 0.078125, 0.015625, 0.09375, 0.140625, 0.03125, 0.015625, 0.09375, 0.015625, 0.03125, 0.03125, 0.078125, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625, 0.015625, 0.015625, 0.15625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.022222222222222223, 0.15625, 0.0625, 0.0425531914893617, 0.015625, 0.203125, 0.03125, 0.03125, 0.140625, 0.02127659574468085, 0.015625, 0.16666666666666666, 0.15625, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.453125, 0.109375, 0.03125, 0.046875, 0.015625, 0.0625, 0.078125, 0.015625, 0.03125, 0.015625, 0.015625, 0.109375, 0.015625, 0.078125, 0.0625, 0.03125, 0.09375, 0.015625, 0.015625, 0.015625, 0.15625, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.046875, 0.0625, 0.078125, 0.09375, 0.1, 0.109375, 0.140625, 0.15625, 0.16666666666666666, 0.171875, 0.203125, 0.453125, 1.0]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.03125, 0.0, 0.03125, 0.15625, 0.03125, 0.03125, 0.078125, 0.038461538461538464, 0.03125, 0.03125, 0.015625, 0.0, 0.078125, 0.015625, 0.078125, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.1, 0.015625, 0.4444444444444444, 0.015625, 0.078125, 0.015625, 0.078125, 0.0625, 0.171875, 0.046875, 0.0625, 0.0, 0.078125, 0.078125, 0.75, 0.09375, 0.09375, 0.140625, 0.03125, 0.015625, 0.09375, 0.03125, 0.078125, 0.015625, 0.015625, 0.0, 0.015625, 0.03125, 0.015625, 0.109375, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.15625, 0.046875, 0.125, 0.03125, 0.015625, 0.078125, 0.03125, 0.015625, 0.0625, 0.015625, 0.0, 0.078125, 0.09375, 0.015625, 0.078125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.05555555555555555, 0.015625, 0.03125, 0.046875, 0.015625, 0.022222222222222223, 0.15625, 0.0625, 0.03125, 0.0425531914893617, 0.03125, 0.0, 0.0, 0.0, 0.203125, 0.03125, 0.015625, 0.03125, 0.140625, 0.02127659574468085, 0.015625, 0.140625, 0.015625, 0.03125, 0.0, 0.03125, 0.16666666666666666, 0.15625, 0.02127659574468085, 0.015625, 0.03125, 0.046875, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.03125, 0.0, 0.03125, 0.109375, 0.03125, 0.0, 0.015625, 0.0, 0.03125, 0.0, 0.03125, 0.03125, 0.078125, 0.234375, 0.0, 0.453125, 0.0, 0.0625, 0.109375, 0.03125, 0.03125, 0.125, 0.03125, 0.046875, 0.015625, 0.0625, 0.078125, 0.015625, 0.03125, 0.1875, 0.015625, 0.0625, 0.109375, 0.109375, 0.03125, 0.125, 0.03125, 0.078125, 0.0625, 0.0, 0.03125, 0.25, 0.0, 0.09375, 0.046875, 0.015625, 0.125, 0.015625, 0.078125, 0.046875, 0.03125, 0.03125, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.15625, 0.109375, 0.015625, 0.015625, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.038461538461538464, 0.0425531914893617, 0.046875, 0.05555555555555555, 0.0625, 0.078125, 0.09375, 0.1, 0.109375, 0.125, 0.140625, 0.15625, 0.16666666666666666, 0.171875, 0.1875, 0.203125, 0.234375, 0.25, 0.4444444444444444, 0.453125, 0.75, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.457708120904603</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8351576547190398</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.21, 0.215, 0.225, 0.23, 0.32, 0.325, 0.34, 0.36, 0.395, 0.41, 0.415, 0.43, 0.44, 0.46, 0.465, 0.47, 0.475, 0.48, 0.48]</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.09, 0.31, 0.32, 0.325, 0.535, 0.54, 0.545, 0.59, 0.595, 0.64, 0.715, 0.74, 0.745, 0.775, 0.795, 0.81, 0.835, 0.84, 0.845, 0.85, 0.855, 0.86, 0.865, 0.87, 0.875, 0.88, 0.88]</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.05567594826733203</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.6211764705882353</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="S17" t="b">
+      <c r="AA17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.28</v>
+        <v>0.525</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02177145570107476</v>
+        <v>0.855</v>
       </c>
       <c r="E18" t="n">
-        <v>69.355</v>
+        <v>0.04115321037489372</v>
       </c>
       <c r="F18" t="n">
-        <v>64.125</v>
+        <v>0.05233361807409959</v>
       </c>
       <c r="G18" t="n">
-        <v>54.51061719374501</v>
+        <v>232.245</v>
       </c>
       <c r="H18" t="n">
-        <v>22.243561069955</v>
+        <v>201.9428571428572</v>
       </c>
       <c r="I18" t="n">
-        <v>54.485956269825</v>
+        <v>146.141274435285</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02466092392</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.06666666666666667, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.022222222222222223, 0.046875, 0.02127659574468085, 0.015625, 0.02127659574468085, 0.015625, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.078125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.046875, 0.0625, 0.06666666666666667, 0.078125, 1.0]</t>
-        </is>
+        <v>0.0035765692</v>
+      </c>
+      <c r="K18" t="n">
+        <v>142.875096815785</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.2661776195</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0.0, 0.205, 0.21, 0.225, 0.23, 0.255, 0.26, 0.27, 0.275, 0.28, 0.28]</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.02429980033134367</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
+          <t>[0.03125, 0.03125, 0.0625, 0.057692307692307696, 0.015625, 0.015625, 0.078125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.1, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.078125, 0.046875, 0.015625, 0.09375, 0.046875, 0.015625, 0.0625, 0.078125, 0.046875, 0.03125, 0.015625, 0.09375, 0.015625, 0.03125, 0.03125, 0.078125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.15625, 0.078125, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.16666666666666666, 0.015625, 0.0625, 0.015625, 0.022222222222222223, 0.03125, 0.046875, 0.0425531914893617, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.140625, 0.02127659574468085, 0.015625, 0.046875, 0.16666666666666666, 0.046875, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.03125, 0.0625, 0.046875, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.0625, 0.25, 0.015625, 0.046875, 0.046875, 0.03125, 0.15625, 0.0625, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.046875, 0.057692307692307696, 0.0625, 0.078125, 0.09375, 0.1, 0.140625, 0.15625, 0.16666666666666666, 0.25, 1.0]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.03125, 0.0, 0.03125, 0.0625, 0.078125, 0.03125, 0.03125, 0.057692307692307696, 0.03125, 0.015625, 0.0, 0.03125, 0.015625, 0.078125, 0.09375, 0.046875, 0.015625, 0.015625, 0.015625, 0.1, 0.015625, 0.4444444444444444, 0.015625, 0.03125, 0.015625, 0.078125, 0.03125, 0.078125, 0.046875, 0.046875, 0.0, 0.09375, 0.046875, 0.75, 0.03125, 0.078125, 0.0625, 0.078125, 0.046875, 0.015625, 0.09375, 0.03125, 0.078125, 0.015625, 0.09375, 0.0, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.078125, 0.015625, 0.015625, 0.015625, 0.15625, 0.03125, 0.046875, 0.03125, 0.015625, 0.046875, 0.03125, 0.015625, 0.0, 0.09375, 0.015625, 0.046875, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.16666666666666666, 0.015625, 0.03125, 0.03125, 0.0625, 0.015625, 0.022222222222222223, 0.03125, 0.046875, 0.03125, 0.0425531914893617, 0.03125, 0.0, 0.0, 0.03125, 0.03125, 0.03125, 0.140625, 0.02127659574468085, 0.015625, 0.03125, 0.03125, 0.0, 0.03125, 0.16666666666666666, 0.046875, 0.02127659574468085, 0.015625, 0.03125, 0.0625, 0.015625, 0.078125, 0.015625, 0.03125, 0.015625, 0.03125, 0.0, 0.03125, 0.109375, 0.109375, 0.0, 0.0, 0.03125, 0.0, 0.03125, 0.03125, 0.0625, 0.078125, 0.25, 0.0, 0.0625, 0.0, 0.046875, 0.046875, 0.0625, 0.03125, 0.0625, 0.03125, 0.046875, 0.015625, 0.046875, 0.03125, 0.015625, 0.03125, 0.1875, 0.015625, 0.046875, 0.046875, 0.0625, 0.046875, 0.125, 0.25, 0.046875, 0.046875, 0.0, 0.03125, 0.15625, 0.0, 0.0625, 0.046875, 0.015625, 0.109375, 0.046875, 0.28125, 0.046875, 0.03125, 0.03125, 0.125, 0.015625, 0.015625, 0.03125, 0.015625, 0.0625, 0.0625, 0.125, 0.015625, 0.015625, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.046875, 0.057692307692307696, 0.0625, 0.078125, 0.09375, 0.1, 0.109375, 0.125, 0.140625, 0.15625, 0.16666666666666666, 0.1875, 0.25, 0.28125, 0.4444444444444444, 0.75, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5049444380190784</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.8157403961879433</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.21, 0.215, 0.225, 0.23, 0.345, 0.35, 0.415, 0.42, 0.455, 0.48, 0.49, 0.495, 0.5, 0.51, 0.52, 0.525, 0.525]</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.085, 0.265, 0.275, 0.28, 0.51, 0.515, 0.625, 0.63, 0.69, 0.74, 0.765, 0.77, 0.785, 0.8, 0.805, 0.815, 0.825, 0.83, 0.84, 0.845, 0.85, 0.855, 0.855]</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.04968703266904143</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.6505434782608696</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="S18" t="b">
+      <c r="AA18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2210526315789474</v>
+        <v>0.54</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5817460317460317</v>
+        <v>0.9</v>
       </c>
       <c r="E19" t="n">
-        <v>13498.73684210526</v>
+        <v>0.03880443292620841</v>
       </c>
       <c r="F19" t="n">
-        <v>13805</v>
+        <v>0.0601046686518761</v>
       </c>
       <c r="G19" t="n">
-        <v>95.53590724198948</v>
+        <v>272.515</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04703082879473684</v>
+        <v>233.3425925925926</v>
       </c>
       <c r="I19" t="n">
-        <v>80.1892027992</v>
+        <v>169.60584976992</v>
       </c>
       <c r="J19" t="n">
-        <v>15.29967361399474</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[0.6333333333333333, 0.2, 0.8666666666666667, 0.6666666666666666, 0.23333333333333334, 0.4666666666666667, 0.2, 0.13333333333333333, 0.9333333333333333, 0.26666666666666666, 0.9666666666666667, 0.9, 0.7, 0.13333333333333333, 0.9, 0.9333333333333333, 0.8333333333333334, 0.8333333333333334, 0.7333333333333333, 0.1, 0.7666666666666667, 0.16666666666666666, 0.6, 0.9333333333333333, 0.23333333333333334, 0.6333333333333333, 0.7666666666666667, 0.26666666666666666, 0.4, 0.7, 0.9, 0.6333333333333333, 0.7666666666666667, 0.1, 0.7666666666666667, 0.9666666666666667, 0.7333333333333333, 0.7333333333333333, 0.6, 0.5666666666666667, 0.06666666666666667, 0.5]</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>[0.06665666666666667, 0.06666666666666667, 0.1, 0.13333333333333333, 0.16666666666666666, 0.2, 0.23333333333333334, 0.26666666666666666, 0.4, 0.4666666666666667, 0.5, 0.5666666666666667, 0.6, 0.6333333333333333, 0.6666666666666666, 0.7, 0.7333333333333333, 0.7666666666666667, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9333333333333333, 0.9666666666666667, 1.0]</t>
-        </is>
+        <v>0.05342365656</v>
+      </c>
+      <c r="K19" t="n">
+        <v>168.86504251685</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.7408072530700001</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.0, 0.005, 0.015, 0.025, 0.03, 0.04, 0.05, 0.06, 0.065, 0.07, 0.075, 0.08, 0.09, 0.105, 0.11, 0.12, 0.135, 0.155, 0.165, 0.17, 0.185, 0.2, 0.21, 0.21]</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0.6947368421052632</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.2210526315789474</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.4327986049038681</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>TGNNExplainer</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
+          <t>[0.03125, 0.03125, 0.057692307692307696, 0.015625, 0.015625, 0.046875, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.1, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.046875, 0.03125, 0.015625, 0.046875, 0.0625, 0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.125, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.0625, 0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.08333333333333333, 0.015625, 0.046875, 0.0625, 0.015625, 0.022222222222222223, 0.03125, 0.046875, 0.0425531914893617, 0.015625, 0.046875, 0.03125, 0.0625, 0.03125, 0.03125, 0.02127659574468085, 0.015625, 0.046875, 0.16666666666666666, 0.0625, 0.02127659574468085, 0.015625, 0.0196078431372549, 0.03125, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.109375, 0.0625, 0.15625, 0.046875, 0.03125, 0.046875, 0.046875, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.140625, 0.046875, 0.015625, 0.0625, 0.0625, 0.03125, 0.046875, 0.015625, 0.015625, 0.1875, 0.015625, 0.0625, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.0196078431372549, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.046875, 0.057692307692307696, 0.0625, 0.08333333333333333, 0.1, 0.109375, 0.125, 0.140625, 0.15625, 0.16666666666666666, 0.1875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.03125, 0.0, 0.03125, 0.09375, 0.171875, 0.03125, 0.125, 0.057692307692307696, 0.0625, 0.0625, 0.015625, 0.0, 0.046875, 0.015625, 0.046875, 0.046875, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.1, 0.015625, 0.4444444444444444, 0.015625, 0.03125, 0.015625, 0.0625, 0.03125, 0.0, 0.046875, 0.03125, 0.0, 0.046875, 0.40625, 0.75, 0.046875, 0.0625, 0.078125, 0.0625, 0.078125, 0.0625, 0.015625, 0.078125, 0.03125, 0.046875, 0.015625, 0.109375, 0.0, 0.015625, 0.125, 0.015625, 0.15625, 0.0625, 0.046875, 0.015625, 0.015625, 0.015625, 0.125, 0.109375, 0.0625, 0.03125, 0.015625, 0.171875, 0.03125, 0.078125, 0.046875, 0.015625, 0.0, 0.0625, 0.109375, 0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.08333333333333333, 0.015625, 0.046875, 0.046875, 0.046875, 0.0625, 0.015625, 0.022222222222222223, 0.03125, 0.046875, 0.0625, 0.0425531914893617, 0.0625, 0.03125, 0.0, 0.0, 0.046875, 0.03125, 0.0625, 0.0625, 0.03125, 0.03125, 0.02127659574468085, 0.015625, 0.046875, 0.078125, 0.0, 0.0625, 0.16666666666666666, 0.0625, 0.02127659574468085, 0.015625, 0.03125, 0.0625, 0.015625, 0.125, 0.03125, 0.03125, 0.015625, 0.03125, 0.0, 0.03125, 0.0625, 0.140625, 0.0, 0.03125, 0.046875, 0.0, 0.03125, 0.03125, 0.0625, 0.078125, 0.0, 0.0625, 0.0, 0.15625, 0.046875, 0.09375, 0.03125, 0.140625, 0.046875, 0.046875, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.15625, 0.015625, 0.125, 0.046875, 0.140625, 0.171875, 0.078125, 0.046875, 0.0625, 0.0625, 0.03125, 0.03125, 0.3125, 0.0, 0.046875, 0.109375, 0.015625, 0.125, 0.046875, 0.09375, 0.09375, 0.0625, 0.046875, 0.1875, 0.109375, 0.03125, 0.046875, 0.015625, 0.046875, 0.0625, 0.046875, 0.015625, 0.015625, 0.09375]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.02127659574468085, 0.022222222222222223, 0.03125, 0.0425531914893617, 0.046875, 0.057692307692307696, 0.0625, 0.078125, 0.08333333333333333, 0.09375, 0.1, 0.109375, 0.125, 0.140625, 0.15625, 0.16666666666666666, 0.171875, 0.1875, 0.3125, 0.40625, 0.4444444444444444, 0.75, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5202833419675236</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8511235488111474</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.21, 0.215, 0.225, 0.23, 0.345, 0.35, 0.43, 0.435, 0.5, 0.505, 0.51, 0.515, 0.52, 0.525, 0.53, 0.535, 0.54, 0.54]</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.08, 0.245, 0.255, 0.26, 0.41, 0.415, 0.565, 0.57, 0.7, 0.735, 0.74, 0.765, 0.77, 0.795, 0.825, 0.84, 0.855, 0.86, 0.875, 0.88, 0.885, 0.89, 0.895, 0.9, 0.9]</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.05841099100237477</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="S19" t="b">
+      <c r="AA19" t="b">
         <v>0</v>
       </c>
     </row>
